--- a/Java3/Test/Rows.xlsx
+++ b/Java3/Test/Rows.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artem\Artem\Java3\Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -16,6 +21,83 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>summa</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,11 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +192,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +232,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +414,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>POWER(-1,A2+1)*$B$1*$B$1*POWER(4/3,4*A2+2)/FACT(2*A2+1)</f>
+        <v>3.7457704618198444</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>3.7457704618198444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B22" si="0">POWER(-1,A3+1)*$B$1*$B$1*POWER(4/3,4*A3+2)/FACT(2*A3+1)</f>
+        <v>-0.59192422112708643</v>
+      </c>
+      <c r="C3">
+        <f>C2+B3</f>
+        <v>3.1538462406927579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>4.4542210643308086E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C23" si="1">C3+B4</f>
+        <v>3.1983884513360659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>-1.9552136359202452E-3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>3.1964332377001456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5.6176732973690544E-5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>3.1964894144331195</v>
+      </c>
+      <c r="D6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>-1.1381167807268735E-6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>3.1964882763163387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.7128624095595513E-8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3.196488293444963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-1.9902540706574302E-10</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>3.1964882932459378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.839235586197033E-12</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>-1.384022075445151E-14</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>8.6446506444629542E-17</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>-4.5535608332973592E-19</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.050071354022236E-21</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>-7.9793569699825505E-24</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.7116890804666565E-26</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>-8.1157922348422165E-29</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.1554547277929333E-31</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>-5.1143403617968962E-34</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.0906775400443222E-36</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>-2.1018778248369962E-39</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3.6782790093260517E-42</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23">
+        <f t="shared" ref="B4:B23" si="2">POWER(-1,A23+1)*$B22*$B22*POWER(4/3,4*A23+2)/FACT(2*A23+1)</f>
+        <v>-2.4052864836353139E-83</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>3.1964882932477634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>